--- a/wb.xlsx
+++ b/wb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://att-my.sharepoint.com/personal/iz2097_att_com/Documents/Desktop/DevLab/Maks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorz\Desktop\DevLab\repos\Maks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{22785010-F7E3-4461-B438-6F22292F82B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F87E58C0-B99D-44B9-B867-3E616F74EBEB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716FAC73-8DB8-460E-87F9-D5B757FC416E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15765" yWindow="4905" windowWidth="27000" windowHeight="15285" xr2:uid="{122024BB-0E06-4781-89C2-4304A6088C12}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="27634" windowHeight="15634" xr2:uid="{122024BB-0E06-4781-89C2-4304A6088C12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>IGOR</t>
   </si>
@@ -90,6 +90,21 @@
   </si>
   <si>
     <t>GOOD</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>files</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>100 days of Going to school</t>
+  </si>
+  <si>
+    <t>box</t>
   </si>
 </sst>
 </file>
@@ -441,15 +456,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDA6414-ABDF-4417-ABCE-EEBC689B604E}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,8 +483,14 @@
       <c r="F1" t="s">
         <v>15</v>
       </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -488,8 +509,14 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -510,6 +537,9 @@
       </c>
       <c r="G3" t="s">
         <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -519,6 +549,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF17BC0E2F531C4E9EE2909467EE99A1" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5613140d20b4feac8b07c20a85e121f2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fd5704b3-599c-4b73-a0ab-dfc242930687" xmlns:ns4="6f4923d4-5d1d-4d6e-bd0a-0b769b093f88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b9509fdb7701dd92be37a9432a989abb" ns3:_="" ns4:_="">
     <xsd:import namespace="fd5704b3-599c-4b73-a0ab-dfc242930687"/>
@@ -741,22 +786,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E5C8DC8-65A2-48B7-B5B0-4A7F27EC67BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17384BF7-3204-47EF-9E99-D86A6BE0B5F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFF5B656-BC9D-476E-80C4-F95206F3BB53}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -773,21 +820,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17384BF7-3204-47EF-9E99-D86A6BE0B5F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E5C8DC8-65A2-48B7-B5B0-4A7F27EC67BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>